--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sma06\Desktop\RPAWorkspace\RE-Framework_템플릿_DT기반\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sma06\Desktop\2025AIAgent\RPA_AutoFeedbackClassification_RE\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE41C046-3687-46A6-9E08-A6B9B1567340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E5D5AB-B002-40AB-A721-5C672BA0666B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{80601F42-B835-411D-B6F1-01869415BCDC}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80601F42-B835-411D-B6F1-01869415BCDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>AllKill대상</t>
-  </si>
-  <si>
-    <t>excel|iexplore|chrome|msedge</t>
-  </si>
-  <si>
-    <t>구분자 |</t>
   </si>
   <si>
     <t>WebSite Info</t>
@@ -258,10 +252,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>excel|chrome</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Subject</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -273,10 +263,6 @@
     <t>MailTo2</t>
   </si>
   <si>
-    <t>본인 메일</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>minasong621@gmail.com</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -297,10 +283,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>템플릿파일명</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>결과파일명</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -313,26 +295,10 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Temp</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>시트명1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>시트명2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>수신메일본문</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>또는 수신메일 첨부파일명 저장</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>수신메일에서 처리날짜 추출 후 저장</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -354,18 +320,6 @@
   </si>
   <si>
     <t>수신메일제목</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>RPA00_프로세스명_RE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA00_프로세스명_템플릿.xlsx</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Path.Combine(io_Config("아웃풋폴더").ToString.Trim, io_Config("템플릿파일명").ToString.Trim.Replace("_템플릿", "_이름"))</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1147,6 +1101,50 @@
       <t>&lt;/span&gt;&lt;/p&gt;</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분자 |, 예. excel|chrome</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>구분자 |, 예. excel|iexplore|chrome|msedge</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>인풋파일명</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>고객명 | 제품명 | 피드백</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>feedback</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>인풋시트명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>칭찬,불만,문의,기타</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>RPA_AutoFeedbackClassification_RE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedback_result.xlsx</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>customer_feedback.xlsx</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>담당자 메일</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1332,7 +1330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1398,6 +1396,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1406,7 +1430,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1492,10 +1516,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1834,11 +1864,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5256A42C-5ED4-4055-A8F8-1D2A1026AF2F}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -1863,29 +1893,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="26.25">
       <c r="A3" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
@@ -1894,262 +1924,258 @@
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="27"/>
       <c r="C5" s="18" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>71</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B6" s="27"/>
       <c r="C6" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="21" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="21" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="30" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="31"/>
+      <c r="A9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32"/>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="31"/>
+      <c r="A12" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="32"/>
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="18" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="26.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="18" t="s">
-        <v>98</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="31"/>
+      <c r="A15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="32"/>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="18" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="18" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="18" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="18" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="18" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="18" t="s">
-        <v>105</v>
-      </c>
+      <c r="A23" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="22"/>
+      <c r="A24" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:3" ht="39.4">
       <c r="A27" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="23"/>
-    </row>
-    <row r="28" spans="1:3" ht="39.4">
+        <v>69</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="91.9">
       <c r="A28" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="402.75" customHeight="1">
+      <c r="A29" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="91.9">
-      <c r="A29" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="402.75" customHeight="1">
-      <c r="A30" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-    </row>
-    <row r="33" spans="1:3" ht="26.25">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="32" spans="1:3" ht="26.25">
+      <c r="A32" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="39.4">
       <c r="A33" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="19" t="s">
         <v>53</v>
       </c>
+      <c r="B33" s="19"/>
       <c r="C33" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="39.4">
-      <c r="A34" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="18" t="s">
-        <v>56</v>
-      </c>
+    <row r="34" spans="1:3">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="26"/>
@@ -2211,15 +2237,10 @@
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B7"/>
@@ -2265,57 +2286,57 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7">
         <v>5000</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7">
         <v>30000</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7">
         <v>120000</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2325,13 +2346,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2341,35 +2362,35 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="7">
         <v>1000</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7">
         <v>15000</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="7">
         <v>60000</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2379,35 +2400,35 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="7">
         <v>0.6</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="7">
         <v>0.8</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="7">
         <v>0.9</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2417,101 +2438,101 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="7">
         <v>2</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" s="7">
         <v>2</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="7" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2608,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
